--- a/Assets/Config/Excel/CardConfig.xlsx
+++ b/Assets/Config/Excel/CardConfig.xlsx
@@ -323,9 +323,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,29 +354,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,8 +367,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,32 +383,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,6 +394,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,24 +429,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,25 +476,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,7 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,145 +656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,17 +670,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,44 +711,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,16 +732,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,133 +785,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1253,7 +1253,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Assets/Config/Excel/CardConfig.xlsx
+++ b/Assets/Config/Excel/CardConfig.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pickm\Desktop\GJ\Ciga-Game-Jam-2020-master\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="CardConfig" sheetId="1" r:id="rId1"/>
@@ -67,18 +72,12 @@
     <t>Stage | int!</t>
   </si>
   <si>
-    <t>政府颁布了疫苗税法令，规定平民需缴纳费用供政府研究</t>
-  </si>
-  <si>
     <t>缴费</t>
   </si>
   <si>
     <t>拒绝</t>
   </si>
   <si>
-    <t>政府官员</t>
-  </si>
-  <si>
     <t>1,1,2,</t>
   </si>
   <si>
@@ -106,21 +105,12 @@
     <t>爪巴</t>
   </si>
   <si>
-    <t>斯嘉丽女士，鉴于您当前的优秀表现，政府会向您发放食物补偿</t>
-  </si>
-  <si>
     <t>收下</t>
   </si>
   <si>
     <t>无功不受禄</t>
   </si>
   <si>
-    <t>斯嘉丽女士，鉴于您当前的优秀表现，政府会向您发放抚恤金</t>
-  </si>
-  <si>
-    <t>请向我透露一些有关民间组织的情报以支持政府工作，我们会记住你的贡献</t>
-  </si>
-  <si>
     <t>好的</t>
   </si>
   <si>
@@ -130,9 +120,6 @@
     <t>1,2,1,</t>
   </si>
   <si>
-    <t>我们正进行募捐，打算游行抗议政府不作为，能否捐出部分伙食费支持我们</t>
-  </si>
-  <si>
     <t>我很乐意</t>
   </si>
   <si>
@@ -157,9 +144,6 @@
     <t>我不差钱</t>
   </si>
   <si>
-    <t>我们组织准备向政府抗议，保障平民权利，你要不要来参加</t>
-  </si>
-  <si>
     <t>必须参加</t>
   </si>
   <si>
@@ -229,15 +213,6 @@
     <t>算了</t>
   </si>
   <si>
-    <t>年轻人，今天政府不发粮食，去参加平民集会可以领面包吃</t>
-  </si>
-  <si>
-    <t>斯嘉丽，今天政府不发粮食，你跟我干爹去政府内部吃饭吧</t>
-  </si>
-  <si>
-    <t>美丽的小姐，听说政府要削减补助金，跟我一块去抢购粮食吧</t>
-  </si>
-  <si>
     <t>隔壁托米</t>
   </si>
   <si>
@@ -289,26 +264,50 @@
     <t>老板，现在生意真的难做，借小弟点钱周转一下吧</t>
   </si>
   <si>
-    <t>斯嘉丽，我现在有门路可以帮你拿到政府的豪华补助，你想不想要</t>
-  </si>
-  <si>
     <t>当然要</t>
   </si>
   <si>
     <t>我不稀罕</t>
+  </si>
+  <si>
+    <t>联盟颁布了疫苗税法令，规定平民需缴纳费用供联盟研究</t>
+  </si>
+  <si>
+    <t>联盟官员</t>
+  </si>
+  <si>
+    <t>斯嘉丽女士，鉴于您当前的优秀表现，联盟会向您发放食物补偿</t>
+  </si>
+  <si>
+    <t>斯嘉丽女士，鉴于您当前的优秀表现，联盟会向您发放抚恤金</t>
+  </si>
+  <si>
+    <t>请向我透露一些有关民间组织的情报以支持联盟工作，我们会记住你的贡献</t>
+  </si>
+  <si>
+    <t>我们正进行募捐，打算游行抗议联盟不作为，能否捐出部分伙食费支持我们</t>
+  </si>
+  <si>
+    <t>我们组织准备向联盟抗议，保障平民权利，你要不要来参加</t>
+  </si>
+  <si>
+    <t>年轻人，今天联盟不发粮食，去参加平民集会可以领面包吃</t>
+  </si>
+  <si>
+    <t>斯嘉丽，今天联盟不发粮食，你跟我干爹去联盟内部吃饭吧</t>
+  </si>
+  <si>
+    <t>美丽的小姐，听说联盟要削减补助金，跟我一块去抢购粮食吧</t>
+  </si>
+  <si>
+    <t>斯嘉丽，我现在有门路可以帮你拿到联盟的豪华补助，你想不想要</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,348 +319,26 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -669,251 +346,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -932,61 +367,17 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1244,34 +635,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="16.4416666666667" customWidth="1"/>
-    <col min="4" max="4" width="12.8916666666667" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="11.225" style="2" customWidth="1"/>
-    <col min="8" max="10" width="10.1083333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.1083333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="2" customWidth="1"/>
+    <col min="8" max="10" width="10.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="2" customWidth="1"/>
     <col min="12" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="11.1083333333333" customWidth="1"/>
-    <col min="19" max="19" width="10.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1324,21 +715,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1">
         <v>15</v>
@@ -1371,27 +762,27 @@
         <v>0</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1424,27 +815,27 @@
         <v>0</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F4" s="1">
         <v>15</v>
@@ -1477,27 +868,27 @@
         <v>0</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F5" s="1">
         <v>10</v>
@@ -1530,27 +921,27 @@
         <v>0</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F6" s="3">
         <v>10</v>
@@ -1583,27 +974,27 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F7" s="1">
         <v>15</v>
@@ -1636,27 +1027,27 @@
         <v>0</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1">
         <v>-15</v>
@@ -1689,27 +1080,27 @@
         <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1">
         <v>-10</v>
@@ -1742,27 +1133,27 @@
         <v>0</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1">
         <v>-10</v>
@@ -1795,27 +1186,27 @@
         <v>0</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1">
         <v>-15</v>
@@ -1848,27 +1239,27 @@
         <v>0</v>
       </c>
       <c r="P11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
         <v>37</v>
       </c>
-      <c r="Q11" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1">
         <v>-10</v>
@@ -1901,27 +1292,27 @@
         <v>0</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1">
         <v>-10</v>
@@ -1954,27 +1345,27 @@
         <v>0</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2007,27 +1398,27 @@
         <v>0</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -2060,27 +1451,27 @@
         <v>0</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2113,27 +1504,27 @@
         <v>0</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2166,27 +1557,27 @@
         <v>0</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1">
         <v>-5</v>
@@ -2219,27 +1610,27 @@
         <v>0</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2272,27 +1663,27 @@
         <v>0</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F20" s="1">
         <v>-5</v>
@@ -2325,27 +1716,27 @@
         <v>0</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F21" s="1">
         <v>5</v>
@@ -2378,27 +1769,27 @@
         <v>0</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F22" s="1">
         <v>-10</v>
@@ -2431,27 +1822,27 @@
         <v>0</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F23" s="1">
         <v>-10</v>
@@ -2484,27 +1875,27 @@
         <v>0</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F24" s="1">
         <v>5</v>
@@ -2537,27 +1928,27 @@
         <v>0</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2590,27 +1981,27 @@
         <v>0</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2643,27 +2034,27 @@
         <v>0</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2696,27 +2087,27 @@
         <v>0</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F28" s="1">
         <v>5</v>
@@ -2749,27 +2140,27 @@
         <v>0</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F29" s="1">
         <v>-5</v>
@@ -2802,27 +2193,27 @@
         <v>0</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F30" s="1">
         <v>-5</v>
@@ -2855,27 +2246,27 @@
         <v>0</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2908,27 +2299,27 @@
         <v>0</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F32" s="1">
         <v>5</v>
@@ -2961,15 +2352,15 @@
         <v>0</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>